--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1120239.344205605</v>
+        <v>1118351.762689203</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>487998.3398776905</v>
+        <v>227093.7741824211</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>170.1535758355527</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>57.44569462307737</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>43.99240337009294</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>50.0416888995691</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>142.6621898072149</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>335.1251144685958</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>36.53380053421239</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>46.68882990942132</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>182.8203183189371</v>
+        <v>259.0629156794213</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>4.470687503011954</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>101.7483282677571</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="D13" t="n">
-        <v>137.2353514512488</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>104.7725661050846</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>172.7067178467367</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>66.90445977359168</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>20.81791057938528</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>5.562624396424695</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>49.38162151975406</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2375,7 +2375,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2530,19 +2530,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>161.6207090023089</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>186.1806370115551</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>152.3420011018077</v>
+        <v>169.7438101404422</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801211</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437419</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>43.2186128548922</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897907</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571493</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523574</v>
+        <v>54.76109577523577</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>59.85495937537944</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789555</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415367</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4150,7 +4150,7 @@
         <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463133</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1725.724578248621</v>
+        <v>1173.337372245452</v>
       </c>
       <c r="C2" t="n">
-        <v>1356.76206130821</v>
+        <v>804.3748553050402</v>
       </c>
       <c r="D2" t="n">
-        <v>1356.76206130821</v>
+        <v>446.1091566982897</v>
       </c>
       <c r="E2" t="n">
-        <v>970.9738087099654</v>
+        <v>446.1091566982897</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>439.1636559490863</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>2112.324418312743</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>2112.324418312743</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y2" t="n">
-        <v>2112.324418312743</v>
+        <v>1173.337372245452</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4410,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>495.9333588715792</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>495.9333588715792</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>495.9333588715792</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>677.581823701819</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2069.921547395234</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C5" t="n">
-        <v>1700.959030454822</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D5" t="n">
-        <v>1342.693331848072</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E5" t="n">
-        <v>956.9050792498276</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>545.9191744602201</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656314</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>2069.921547395234</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>2069.921547395234</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4638,28 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426.2840617486069</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="C7" t="n">
-        <v>257.3478788207</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3478788207</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>680.9685499544937</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>426.2840617486069</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>426.2840617486069</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X7" t="n">
-        <v>426.2840617486069</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="Y7" t="n">
-        <v>426.2840617486069</v>
+        <v>272.8312459770186</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1704.018810322078</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="C8" t="n">
-        <v>1335.056293381666</v>
+        <v>1547.282842550967</v>
       </c>
       <c r="D8" t="n">
-        <v>976.7905947749157</v>
+        <v>1189.017143944216</v>
       </c>
       <c r="E8" t="n">
-        <v>976.7905947749157</v>
+        <v>803.2288913459718</v>
       </c>
       <c r="F8" t="n">
-        <v>565.8046899853082</v>
+        <v>796.2833905967683</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>2090.6186503862</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X8" t="n">
-        <v>2090.6186503862</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y8" t="n">
-        <v>2090.6186503862</v>
+        <v>1916.245359491378</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>344.9043780966903</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>194.7877386843545</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>194.7877386843545</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>194.7877386843545</v>
       </c>
       <c r="G10" t="n">
         <v>190.2718927217162</v>
@@ -4957,55 +4957,55 @@
         <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V10" t="n">
-        <v>411.0644718652463</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W10" t="n">
-        <v>411.0644718652463</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X10" t="n">
-        <v>411.0644718652463</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2718927217162</v>
+        <v>513.8405610245972</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028562</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,10 +5057,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L12" t="n">
-        <v>836.4717212750119</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M12" t="n">
-        <v>1156.807040804714</v>
+        <v>1197.770682899239</v>
       </c>
       <c r="N12" t="n">
-        <v>1961.218619068864</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>699.5778825909696</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C13" t="n">
-        <v>530.6416996630628</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5206,13 +5206,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.78763177146</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617344997</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>920.3704617344997</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y13" t="n">
-        <v>699.5778825909696</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5303,10 +5303,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5358,22 +5358,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181232</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>836.4717212750119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M15" t="n">
-        <v>1604.839867667473</v>
+        <v>560.0029855602517</v>
       </c>
       <c r="N15" t="n">
-        <v>2374.820091292176</v>
+        <v>1364.414563824402</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>359.1696912903948</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>359.1696912903948</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>359.1696912903948</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,16 +5440,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909233</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1058.224877055613</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>1058.224877055613</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>768.8077070186519</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>540.8181561206345</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>540.8181561206345</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,40 +5498,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5540,10 +5540,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
         <v>4262.357857465301</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>627.5571851405259</v>
       </c>
       <c r="L18" t="n">
-        <v>711.1141612171745</v>
+        <v>857.520291008875</v>
       </c>
       <c r="M18" t="n">
-        <v>1479.482307609636</v>
+        <v>1625.888437401336</v>
       </c>
       <c r="N18" t="n">
-        <v>2283.893885873787</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028584</v>
@@ -5671,22 +5671,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5701,22 +5701,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>675.007103038344</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V19" t="n">
-        <v>607.4268406407766</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W19" t="n">
-        <v>318.0096706038159</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="20">
@@ -5729,25 +5729,25 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5768,28 +5768,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>243.0706902632331</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>653.9609591077458</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>883.924064976095</v>
       </c>
       <c r="M21" t="n">
-        <v>754.998473976564</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N21" t="n">
-        <v>1559.410052240715</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>441.9005583181187</v>
+        <v>102.835903981927</v>
       </c>
       <c r="C22" t="n">
-        <v>441.9005583181187</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>441.9005583181187</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>293.9874647357256</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>147.0975172378152</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609662</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550792</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W22" t="n">
-        <v>441.9005583181187</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X22" t="n">
-        <v>441.9005583181187</v>
+        <v>102.835903981927</v>
       </c>
       <c r="Y22" t="n">
-        <v>441.9005583181187</v>
+        <v>102.835903981927</v>
       </c>
     </row>
     <row r="23">
@@ -5984,49 +5984,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M24" t="n">
-        <v>417.5524109899876</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.6350999123426</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U25" t="n">
-        <v>911.9576038464864</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>657.2731156405996</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="W25" t="n">
-        <v>657.2731156405996</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="X25" t="n">
-        <v>429.2835647425823</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="Y25" t="n">
-        <v>429.2835647425823</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6239,37 +6239,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M27" t="n">
-        <v>417.5524109899876</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881929</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
         <v>97.21709146028587</v>
@@ -6388,16 +6388,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247854</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>964.1357418247854</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>709.4512536188986</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W28" t="n">
-        <v>420.034083581938</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X28" t="n">
-        <v>420.034083581938</v>
+        <v>268.6754855415406</v>
       </c>
       <c r="Y28" t="n">
-        <v>266.1532743881929</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,10 +6461,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,13 +6473,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207831</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>549.3729734629516</v>
       </c>
       <c r="M30" t="n">
-        <v>417.5524109899877</v>
+        <v>549.3729734629516</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>544.1045888917515</v>
+        <v>439.5324299542178</v>
       </c>
       <c r="C31" t="n">
-        <v>430.9292712452154</v>
+        <v>326.3571123076816</v>
       </c>
       <c r="D31" t="n">
-        <v>430.9292712452154</v>
+        <v>232.0013381767166</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441931</v>
+        <v>232.0013381767166</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276535</v>
+        <v>140.872255960177</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6622,19 +6622,19 @@
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
@@ -6643,10 +6643,10 @@
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
         <v>1568.62813016707</v>
@@ -6658,13 +6658,13 @@
         <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818929</v>
+        <v>902.6804289818926</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652463</v>
+        <v>730.4517433652461</v>
       </c>
       <c r="Y31" t="n">
-        <v>669.9921884406205</v>
+        <v>565.4200295030868</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805475</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514082</v>
@@ -6719,31 +6719,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M33" t="n">
-        <v>417.5524109899877</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>1667.648898594694</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1916.402312678656</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2436.702934414403</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,10 +6877,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6935,13 +6935,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>566.6947980556459</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>887.0301175853477</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,19 +7114,19 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7175,16 +7175,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7217,7 +7217,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>319.4098675946024</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>549.3729734629516</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>549.3729734629516</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222968</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506734</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083213</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850452</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7360,7 +7360,7 @@
         <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025263</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7491,25 +7491,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L42" t="n">
-        <v>1039.795319932216</v>
+        <v>761.6902864719582</v>
       </c>
       <c r="M42" t="n">
-        <v>1808.163466324677</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N42" t="n">
-        <v>1808.163466324677</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
         <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045201</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010311</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,7 +7637,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7646,13 +7646,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7679,19 +7679,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="M45" t="n">
-        <v>334.288126757867</v>
+        <v>1031.90644000511</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>1836.31801826926</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E46" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.0503551525399</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9255,10 +9255,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>300.6524805803448</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>194.2773722894643</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11148,10 +11148,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11382,13 +11382,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>331.4147240005063</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>133.8953512967693</v>
       </c>
       <c r="D13" t="n">
-        <v>11.3801215669636</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>181.4647862934928</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>79.43092547709131</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23941,19 +23941,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>185.2331835502363</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>265.7050877572057</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>161.6841967022031</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>117.1119469436235</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>124.6166433962684</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>65.95700631227285</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.24265225028716</v>
+        <v>48.84084321165264</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896553</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>68.07169897992836</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571496</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.5264373481583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-1.548983163957018e-12</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>977572.6493442723</v>
+        <v>977572.6493442724</v>
       </c>
     </row>
     <row r="10">
@@ -26314,7 +26314,7 @@
         <v>410520.8849321416</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="D2" t="n">
         <v>410520.8849321415</v>
@@ -26323,37 +26323,37 @@
         <v>391029.0597377089</v>
       </c>
       <c r="F2" t="n">
-        <v>391029.0597377088</v>
+        <v>391029.0597377089</v>
       </c>
       <c r="G2" t="n">
         <v>391029.0597377089</v>
       </c>
       <c r="H2" t="n">
+        <v>391029.0597377088</v>
+      </c>
+      <c r="I2" t="n">
         <v>391029.0597377089</v>
       </c>
-      <c r="I2" t="n">
-        <v>391029.0597377088</v>
-      </c>
       <c r="J2" t="n">
-        <v>391029.0597377088</v>
+        <v>391029.0597377089</v>
       </c>
       <c r="K2" t="n">
-        <v>406822.1373452707</v>
+        <v>406822.1373452708</v>
       </c>
       <c r="L2" t="n">
+        <v>410520.8849321423</v>
+      </c>
+      <c r="M2" t="n">
         <v>410520.8849321422</v>
-      </c>
-      <c r="M2" t="n">
-        <v>410520.8849321423</v>
       </c>
       <c r="N2" t="n">
         <v>410520.8849321423</v>
       </c>
       <c r="O2" t="n">
-        <v>410520.8849321421</v>
+        <v>410520.8849321422</v>
       </c>
       <c r="P2" t="n">
-        <v>410520.8849321422</v>
+        <v>410520.8849321423</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.60530284562</v>
       </c>
       <c r="L3" t="n">
         <v>10342.90680086689</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284565</v>
+        <v>44162.60530284563</v>
       </c>
     </row>
     <row r="4">
@@ -26421,40 +26421,40 @@
         <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758876</v>
+        <v>787.7936905758424</v>
       </c>
       <c r="I4" t="n">
-        <v>787.793690575885</v>
+        <v>787.7936905758513</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758436</v>
       </c>
       <c r="K4" t="n">
         <v>18952.41620477237</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189638</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189634</v>
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26491,13 +26491,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26522,34 +26522,34 @@
         <v>-401365.2115264314</v>
       </c>
       <c r="C6" t="n">
-        <v>188602.6676881131</v>
+        <v>188602.667688113</v>
       </c>
       <c r="D6" t="n">
         <v>188602.667688113</v>
       </c>
       <c r="E6" t="n">
-        <v>-226906.0963784797</v>
+        <v>-227003.5555044517</v>
       </c>
       <c r="F6" t="n">
-        <v>298253.9400984164</v>
+        <v>298156.4809724442</v>
       </c>
       <c r="G6" t="n">
-        <v>298253.9400984164</v>
+        <v>298156.4809724443</v>
       </c>
       <c r="H6" t="n">
-        <v>298253.9400984164</v>
+        <v>298156.4809724441</v>
       </c>
       <c r="I6" t="n">
-        <v>298253.9400984163</v>
+        <v>298156.4809724442</v>
       </c>
       <c r="J6" t="n">
-        <v>121830.7209058234</v>
+        <v>121733.2617798514</v>
       </c>
       <c r="K6" t="n">
-        <v>247078.9073074298</v>
+        <v>247060.4135694956</v>
       </c>
       <c r="L6" t="n">
-        <v>279256.2913793535</v>
+        <v>279256.2913793537</v>
       </c>
       <c r="M6" t="n">
         <v>154798.1829463834</v>
@@ -26558,10 +26558,10 @@
         <v>289599.1981802206</v>
       </c>
       <c r="O6" t="n">
-        <v>289599.1981802204</v>
+        <v>289599.1981802205</v>
       </c>
       <c r="P6" t="n">
-        <v>245436.5928773748</v>
+        <v>245436.592877375</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L2" t="n">
         <v>12.92863350108362</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>236.7224699061587</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>356.3384753977176</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>242.5305949664981</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>168.5429644525257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>222.6107019637927</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>78.65905555219916</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>130.7760017248385</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>239.5930443325564</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>230.9638517018579</v>
+        <v>154.7212543413737</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>162.839114756039</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>150.3893150560709</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-5.968558980384842e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653236</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,28 +31376,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>111.7343803072865</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,7 +31610,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993485</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -31850,19 +31850,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>347.6220663928831</v>
       </c>
       <c r="O12" t="n">
-        <v>163.1953899965973</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32081,19 +32081,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>143.889469262893</v>
       </c>
       <c r="N15" t="n">
-        <v>429.7571393808937</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -32102,10 +32102,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,13 +32312,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>241.0720519899397</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32327,7 +32327,7 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32336,7 +32336,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,16 +32488,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647517</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,19 +32549,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>148.0734588039824</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>340.8546090773499</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32573,13 +32573,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,25 +32792,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>380.4309478731435</v>
+        <v>192.0343428355219</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32956,7 +32956,7 @@
         <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
         <v>562.4526372540886</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -33035,10 +33035,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>380.4309478731435</v>
+        <v>267.7425307447071</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
@@ -33047,7 +33047,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -33272,7 +33272,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>380.4309478731434</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33281,10 +33281,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33421,7 +33421,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
         <v>526.796267130444</v>
@@ -33497,31 +33497,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>380.4309478731434</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>107.9252528799044</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33655,7 +33655,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33734,22 +33734,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>241.933940128294</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -33758,7 +33758,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33974,28 +33974,28 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34211,28 +34211,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>304.772579554614</v>
+        <v>312.2752819045311</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34366,7 +34366,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34387,7 +34387,7 @@
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -34454,22 +34454,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
@@ -35498,19 +35498,19 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>695.6227286531033</v>
       </c>
       <c r="O12" t="n">
-        <v>414.4614648288824</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>467.4604990908746</v>
       </c>
       <c r="N15" t="n">
-        <v>777.7578016411139</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>367.6958500281593</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004661</v>
@@ -35975,16 +35975,16 @@
         <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>343.1107267700522</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36139,10 +36139,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>147.3268674777245</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>664.4256389053315</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
         <v>251.2660748322851</v>
@@ -36221,7 +36221,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>728.4316101333637</v>
+        <v>540.0350050957421</v>
       </c>
       <c r="O24" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>728.4316101333637</v>
+        <v>615.7431930049273</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36695,7 +36695,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36768,7 +36768,7 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187476</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>162.0981008004707</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>728.4316101333636</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
         <v>676.2260215178377</v>
@@ -36929,10 +36929,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>728.4316101333636</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>178.020766529732</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>474.2199056518789</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>56.43593331510527</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>537.058545078199</v>
+        <v>544.5612474281161</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38035,7 +38035,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
         <v>59.8253897034981</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>188.8184795560619</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
